--- a/Pieces Janvier.xlsx
+++ b/Pieces Janvier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarob\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarob\OneDrive\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BB54CE-2E4D-4D1C-BD26-139ABF0D2734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9FC9EB-8B4D-485A-B246-669A74F9F98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{18FADFC5-7195-4239-8790-6D6C428A9EB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="18" xr2:uid="{18FADFC5-7195-4239-8790-6D6C428A9EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Pieces Total" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,20 @@
     <sheet name="ADECAT" sheetId="3" r:id="rId4"/>
     <sheet name="FAN MOTO" sheetId="5" r:id="rId5"/>
     <sheet name="RONGXIN" sheetId="18" r:id="rId6"/>
-    <sheet name="Fsseur" sheetId="7" r:id="rId7"/>
-    <sheet name="TSY AZO" sheetId="6" r:id="rId8"/>
-    <sheet name="Yymp  tsy azo" sheetId="10" r:id="rId9"/>
-    <sheet name="Fan moto tsy azo" sheetId="11" r:id="rId10"/>
+    <sheet name="JACKS" sheetId="20" r:id="rId7"/>
+    <sheet name="Fsseur" sheetId="7" r:id="rId8"/>
+    <sheet name="TSY AZO" sheetId="6" r:id="rId9"/>
+    <sheet name="Yymp  tsy azo" sheetId="10" r:id="rId10"/>
     <sheet name="Otitos tsy azo" sheetId="9" r:id="rId11"/>
-    <sheet name="Adecat tsy azo" sheetId="8" r:id="rId12"/>
-    <sheet name="Rongxin tsy azo" sheetId="12" r:id="rId13"/>
-    <sheet name="Top motor tsy azo" sheetId="16" r:id="rId14"/>
-    <sheet name="Fym tsy azo" sheetId="13" r:id="rId15"/>
-    <sheet name="Capital tsy azo" sheetId="15" r:id="rId16"/>
-    <sheet name="Terri tsy azo" sheetId="14" r:id="rId17"/>
-    <sheet name="ENTANA LAFO" sheetId="17" r:id="rId18"/>
-    <sheet name="entana tsisy" sheetId="19" r:id="rId19"/>
+    <sheet name="Fan moto tsy azo" sheetId="11" r:id="rId12"/>
+    <sheet name="Adecat tsy azo" sheetId="8" r:id="rId13"/>
+    <sheet name="Rongxin tsy azo" sheetId="12" r:id="rId14"/>
+    <sheet name="Top motor tsy azo" sheetId="16" r:id="rId15"/>
+    <sheet name="Fym tsy azo" sheetId="13" r:id="rId16"/>
+    <sheet name="Capital tsy azo" sheetId="15" r:id="rId17"/>
+    <sheet name="Terri tsy azo" sheetId="14" r:id="rId18"/>
+    <sheet name="ENTANA LAFO" sheetId="17" r:id="rId19"/>
+    <sheet name="entana tsisy" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="990">
   <si>
     <t>Qte</t>
   </si>
@@ -2950,15 +2951,9 @@
     <t>Pal 5ML YYMP</t>
   </si>
   <si>
-    <t>Chaine 2*3 98L</t>
-  </si>
-  <si>
     <t>rampe yymp 5ml</t>
   </si>
   <si>
-    <t>join 5ml</t>
-  </si>
-  <si>
     <t>Chaine 2*3-98</t>
   </si>
   <si>
@@ -2978,6 +2973,348 @@
   </si>
   <si>
     <t>bille 11g</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Casque 111</t>
+  </si>
+  <si>
+    <t>Casque 777</t>
+  </si>
+  <si>
+    <t>Ampoule cligno tsotra</t>
+  </si>
+  <si>
+    <t>Ampoule Avant tsotra</t>
+  </si>
+  <si>
+    <t>Attaque 5ML</t>
+  </si>
+  <si>
+    <t>Attaque JR-GP</t>
+  </si>
+  <si>
+    <t>Boitier Cligno 2T</t>
+  </si>
+  <si>
+    <t>Boitier Cligno 4T</t>
+  </si>
+  <si>
+    <t>Regulateur Racing</t>
+  </si>
+  <si>
+    <t>Boulon Chemise 2T</t>
+  </si>
+  <si>
+    <t>Gougeon 2T</t>
+  </si>
+  <si>
+    <t>Bendix Jog</t>
+  </si>
+  <si>
+    <t>Piston Terri 50mm</t>
+  </si>
+  <si>
+    <t>Piston Terri 51mm</t>
+  </si>
+  <si>
+    <t>Piston Terri 52mm</t>
+  </si>
+  <si>
+    <t>Ralonge Retro</t>
+  </si>
+  <si>
+    <t>Barnadeur</t>
+  </si>
+  <si>
+    <t>Depoxi GM</t>
+  </si>
+  <si>
+    <t>Depoxi PM</t>
+  </si>
+  <si>
+    <t>Ferrodo Jog</t>
+  </si>
+  <si>
+    <t>Ferrodo BWS</t>
+  </si>
+  <si>
+    <t>Ferrodo G5-GP-G6-Racing</t>
+  </si>
+  <si>
+    <t>Ferrodo 5ML</t>
+  </si>
+  <si>
+    <t>Tete Bougie 2T</t>
+  </si>
+  <si>
+    <t>Tete Bougie 4T</t>
+  </si>
+  <si>
+    <t>Cache Poussiere BWS</t>
+  </si>
+  <si>
+    <t>CDI G5-Racing</t>
+  </si>
+  <si>
+    <t>CDI JR</t>
+  </si>
+  <si>
+    <t>Chaine ABM</t>
+  </si>
+  <si>
+    <t>Chaine CND</t>
+  </si>
+  <si>
+    <t>Contacteur Rond</t>
+  </si>
+  <si>
+    <t>Contacteur carre JR</t>
+  </si>
+  <si>
+    <t>Contacteur Jog-BWS</t>
+  </si>
+  <si>
+    <t>Plaquette C1</t>
+  </si>
+  <si>
+    <t>Plaquette C3</t>
+  </si>
+  <si>
+    <t>Plaquette C4</t>
+  </si>
+  <si>
+    <t>Plaquette CBX</t>
+  </si>
+  <si>
+    <t>Plaquette Banane 4Piston</t>
+  </si>
+  <si>
+    <t>Plaquette TWPO</t>
+  </si>
+  <si>
+    <t>Plaquette Evo</t>
+  </si>
+  <si>
+    <t>Plaquette Jbubu</t>
+  </si>
+  <si>
+    <t>Plaquette \12</t>
+  </si>
+  <si>
+    <t>Plaquette PGO arriere</t>
+  </si>
+  <si>
+    <t>Plaquette GP</t>
+  </si>
+  <si>
+    <t>Plaquette JR-VJR</t>
+  </si>
+  <si>
+    <t>Plaquette Sym avant</t>
+  </si>
+  <si>
+    <t>Plaquette Racing</t>
+  </si>
+  <si>
+    <t>Marchellote KN7</t>
+  </si>
+  <si>
+    <t>Cerveau Jog</t>
+  </si>
+  <si>
+    <t>Filtre Fighter</t>
+  </si>
+  <si>
+    <t>Filtre GTR</t>
+  </si>
+  <si>
+    <t>Filtre RS</t>
+  </si>
+  <si>
+    <t>Filtre SMAX</t>
+  </si>
+  <si>
+    <t>Filtre G6 VACS</t>
+  </si>
+  <si>
+    <t>Filtre G6 VVCS</t>
+  </si>
+  <si>
+    <t>Filtre KING</t>
+  </si>
+  <si>
+    <t>Filtre JR</t>
+  </si>
+  <si>
+    <t>Flasque JR</t>
+  </si>
+  <si>
+    <t>Flasque G5\12</t>
+  </si>
+  <si>
+    <t>Flasque 5ML</t>
+  </si>
+  <si>
+    <t>Flasque Jog</t>
+  </si>
+  <si>
+    <t>Flasque  GP\10</t>
+  </si>
+  <si>
+    <t>Flasque BWS</t>
+  </si>
+  <si>
+    <t>Flexible kit</t>
+  </si>
+  <si>
+    <t>Flexible Arriere  180cm</t>
+  </si>
+  <si>
+    <t>Gros disque Jog</t>
+  </si>
+  <si>
+    <t>Join Echap</t>
+  </si>
+  <si>
+    <t>Pipe jog</t>
+  </si>
+  <si>
+    <t>Pipe be  RS</t>
+  </si>
+  <si>
+    <t>Pipe kely RS</t>
+  </si>
+  <si>
+    <t>Pulseur Jog</t>
+  </si>
+  <si>
+    <t>Pulseur kely be</t>
+  </si>
+  <si>
+    <t>Pilseur Carre G\D</t>
+  </si>
+  <si>
+    <t>Disque \10 GP-G5</t>
+  </si>
+  <si>
+    <t>Disque BWS PM</t>
+  </si>
+  <si>
+    <t>Disque Arriere</t>
+  </si>
+  <si>
+    <t>LED Rond</t>
+  </si>
+  <si>
+    <t>LED M6</t>
+  </si>
+  <si>
+    <t>Boulon dimapolo</t>
+  </si>
+  <si>
+    <t>Boulon Disque GM</t>
+  </si>
+  <si>
+    <t>Boulon disque PM</t>
+  </si>
+  <si>
+    <t>Segment LAZIX 50</t>
+  </si>
+  <si>
+    <t>Segment LAZIX 51</t>
+  </si>
+  <si>
+    <t>Segment LAZIX 52</t>
+  </si>
+  <si>
+    <t>Segment LAZIX 53</t>
+  </si>
+  <si>
+    <t>Segment LAZIX 54</t>
+  </si>
+  <si>
+    <t>Segment LAZIX 56</t>
+  </si>
+  <si>
+    <t>Piston LAZIX 50</t>
+  </si>
+  <si>
+    <t>Piston LAZIX 51</t>
+  </si>
+  <si>
+    <t>Piston LAZIX 52</t>
+  </si>
+  <si>
+    <t>Piston LAZIX 53</t>
+  </si>
+  <si>
+    <t>Piston LAZIX 54</t>
+  </si>
+  <si>
+    <t>Piston LAZIX BWS 52</t>
+  </si>
+  <si>
+    <t>Piston LAZIX bWS 54</t>
+  </si>
+  <si>
+    <t>Segment RIK 52.4 (Many)</t>
+  </si>
+  <si>
+    <t>Segment RIK 54 (G5)</t>
+  </si>
+  <si>
+    <t>Segment RIK 59 (G5)</t>
+  </si>
+  <si>
+    <t>Segment RIK 61 (G5)</t>
+  </si>
+  <si>
+    <t>P.U  (Fmg)</t>
+  </si>
+  <si>
+    <t>Montant (Fmg)</t>
+  </si>
+  <si>
+    <t>Pulseur kely kely</t>
+  </si>
+  <si>
+    <t>Chaine 2*3 98L CND</t>
+  </si>
+  <si>
+    <t>join 5ml 54</t>
+  </si>
+  <si>
+    <t>join 5ml 59</t>
+  </si>
+  <si>
+    <t>Clean Carb</t>
+  </si>
+  <si>
+    <t>Bille 9g</t>
+  </si>
+  <si>
+    <t>Bille 12g</t>
+  </si>
+  <si>
+    <t>Prix de vente</t>
+  </si>
+  <si>
+    <t>Bille Bendix GY6-BWS</t>
+  </si>
+  <si>
+    <t>Bobine CG/ana JOG</t>
+  </si>
+  <si>
+    <t>Bobine GY6 tsy injection</t>
+  </si>
+  <si>
+    <t>Jauge essence GP-G5</t>
+  </si>
+  <si>
+    <t>courroix YYMP LFB6</t>
   </si>
 </sst>
 </file>
@@ -3153,7 +3490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3189,6 +3526,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3539,11 +3879,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FD64D731-3010-45D4-9C88-C5EAE58EB58D}" name="Tableau14" displayName="Tableau14" ref="A1:B335" totalsRowShown="0">
-  <autoFilter ref="A1:B335" xr:uid="{2092FC48-FB79-41F3-8D42-8AE7362AF2AE}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FD64D731-3010-45D4-9C88-C5EAE58EB58D}" name="Tableau14" displayName="Tableau14" ref="A1:C435" totalsRowShown="0">
+  <autoFilter ref="A1:C435" xr:uid="{2092FC48-FB79-41F3-8D42-8AE7362AF2AE}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{330FA353-AC64-4F98-BF45-03DF1047265F}" name="Designation"/>
     <tableColumn id="2" xr3:uid="{B3A81646-46BE-4042-B593-6003E1D40B93}" name="Prix"/>
+    <tableColumn id="3" xr3:uid="{97E0179A-A385-4520-B2DA-2FFE3F04A8D1}" name="Prix de vente"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3589,8 +3930,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4C729E9D-9621-495B-B671-50B89608AF9E}" name="Tableau3" displayName="Tableau3" ref="A1:D66" totalsRowShown="0">
-  <autoFilter ref="A1:D66" xr:uid="{D2FC2257-10CB-4CBD-B691-44243F6C72C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4C729E9D-9621-495B-B671-50B89608AF9E}" name="Tableau3" displayName="Tableau3" ref="A1:D68" totalsRowShown="0">
+  <autoFilter ref="A1:D68" xr:uid="{D2FC2257-10CB-4CBD-B691-44243F6C72C1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A3CE672A-47AA-40F6-A68B-847D63CE95EC}" name="Qte"/>
     <tableColumn id="2" xr3:uid="{280F6D22-31B4-452F-8165-92995A5D07D2}" name="Designation "/>
@@ -3598,6 +3939,32 @@
     <tableColumn id="4" xr3:uid="{A857FFD7-63E7-4C3C-956F-64E7B12F7F30}" name="Montant (fmg)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4826B794-DA18-4503-BB4D-18A307959AAC}" name="Table2" displayName="Table2" ref="A1:D99" totalsRowShown="0">
+  <autoFilter ref="A1:D99" xr:uid="{4826B794-DA18-4503-BB4D-18A307959AAC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9C56B421-F8FE-4BC1-92DB-A03101E2AD86}" name="Qte"/>
+    <tableColumn id="2" xr3:uid="{170C2ABA-118F-4E6A-BF19-82F1C0167917}" name="Designation "/>
+    <tableColumn id="3" xr3:uid="{6A04B512-6ED5-49EE-A03E-5D7EE9302CB9}" name="P.U  (Ariary)"/>
+    <tableColumn id="4" xr3:uid="{DCB77830-F40E-4887-B0EE-B53E9FDC9385}" name="Montant (Ariary)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{998B6BC4-D377-4D1E-9898-B80C6A056E8A}" name="Table4" displayName="Table4" ref="A1:D100" totalsRowShown="0">
+  <autoFilter ref="A1:D100" xr:uid="{998B6BC4-D377-4D1E-9898-B80C6A056E8A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{013BB80F-9E55-4141-9446-8B750D9392EF}" name="Qte"/>
+    <tableColumn id="2" xr3:uid="{89709808-F815-45CB-A06A-2DB6E10FEEE4}" name="Designation "/>
+    <tableColumn id="3" xr3:uid="{8FDE38FF-C725-4D3D-9379-68DEA78E68DE}" name="P.U  (Fmg)"/>
+    <tableColumn id="4" xr3:uid="{D5A82B8A-7704-47A3-9A60-E1220EEC67DF}" name="Montant (Fmg)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3901,2696 +4268,4793 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:C435"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="J231" sqref="J231"/>
+    <sheetView topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="C436" sqref="C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>47917</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>57500</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>138750</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>127100</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>47917</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
         <v>37500</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>15833</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>15833</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>32500</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>20000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>11000</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>17500</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
         <v>10000</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
         <v>15000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>12000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>12500</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <v>8000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>15000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
         <v>20000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
         <v>25000</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>15000</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
         <v>37500</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>17500</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>22500</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
         <v>22500</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>241</v>
       </c>
       <c r="B28">
         <v>20000</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>10000</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>35000</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31">
         <v>186000</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32">
         <v>148000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33">
         <v>15500</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34">
         <v>9000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>985</v>
       </c>
       <c r="B35">
         <v>11000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36">
         <v>39000</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37">
         <v>3500</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38">
         <v>6500</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39">
         <v>5000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40">
         <v>4000</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41">
         <v>3500</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42">
         <v>5000</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>98</v>
       </c>
       <c r="B43">
         <v>3500</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44">
         <v>3500</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45">
         <v>5000</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46">
         <v>5000</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47">
         <v>5000</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48">
         <v>6500</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49">
         <v>5000</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50">
         <v>3500</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51">
         <v>5000</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52">
         <v>3500</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53">
         <v>5000</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54">
         <v>3500</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55">
         <v>5000</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56">
         <v>3500</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57">
         <v>3500</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59">
         <v>3500</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60">
         <v>6000</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61">
         <v>5000</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62">
         <v>3500</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63">
         <v>3500</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64">
         <v>5000</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="B65">
         <v>3500</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66">
         <v>6500</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67">
         <v>5000</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68">
         <v>5000</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
       <c r="B69">
         <v>3500</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
       <c r="B70">
         <v>5000</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71">
         <v>5000</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72">
         <v>3500</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
       <c r="B73">
         <v>5000</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74">
         <v>239000</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="B75">
         <v>27500</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="B76">
         <v>24500</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="B77">
         <v>99000</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="B78">
         <v>94500</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="B79">
         <v>21500</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="B80">
         <v>23000</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="B81">
         <v>53000</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="B82">
         <v>18500</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="B83">
         <v>35000</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="B84">
         <v>41500</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>88</v>
       </c>
       <c r="B85">
         <v>19000</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>89</v>
       </c>
       <c r="B86">
         <v>19000</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
       <c r="B87">
         <v>23500</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="B88">
         <v>28500</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89">
         <v>41000</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="B90">
         <v>52000</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="B91">
         <v>2500</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92">
         <v>315000</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>335000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
       <c r="B93">
         <v>315000</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="B94">
         <v>270000</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>99</v>
       </c>
       <c r="B95">
         <v>275000</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>100</v>
       </c>
       <c r="B96">
         <v>325000</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>101</v>
       </c>
       <c r="B97">
         <v>350000</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>102</v>
       </c>
       <c r="B98">
         <v>325000</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>103</v>
       </c>
       <c r="B99">
         <v>400000</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>104</v>
       </c>
       <c r="B100">
         <v>400000</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>105</v>
       </c>
       <c r="B101">
         <v>350000</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>106</v>
       </c>
       <c r="B102">
         <v>400000</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>107</v>
       </c>
       <c r="B103">
         <v>425000</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>108</v>
       </c>
       <c r="B104">
         <v>450000</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>109</v>
       </c>
       <c r="B105">
         <v>300000</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>110</v>
       </c>
       <c r="B106">
         <v>50000</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>111</v>
       </c>
       <c r="B107">
         <v>50000</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>112</v>
       </c>
       <c r="B108">
         <v>25000</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
       <c r="B109">
         <v>25000</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>114</v>
       </c>
       <c r="B110">
         <v>25000</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
       <c r="B111">
         <v>50000</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
       <c r="B112">
         <v>850000</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>875000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>117</v>
       </c>
       <c r="B113">
         <v>600000</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>620000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>118</v>
       </c>
       <c r="B114">
         <v>25000</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>119</v>
       </c>
       <c r="B115">
         <v>95000</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>120</v>
       </c>
       <c r="B116">
         <v>95000</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>121</v>
       </c>
       <c r="B117">
         <v>95000</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>122</v>
       </c>
       <c r="B118">
         <v>85000</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>123</v>
       </c>
       <c r="B119">
         <v>100000</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>124</v>
       </c>
       <c r="B120">
         <v>100000</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>125</v>
       </c>
       <c r="B121">
         <v>375000</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>126</v>
       </c>
       <c r="B122">
         <v>25000</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>127</v>
       </c>
       <c r="B123">
         <v>25000</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>128</v>
       </c>
       <c r="B124">
         <v>25000</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>129</v>
       </c>
       <c r="B125">
         <v>15000</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>130</v>
       </c>
       <c r="B126">
         <v>15000</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>131</v>
       </c>
       <c r="B127">
         <v>15000</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>132</v>
       </c>
       <c r="B128">
         <v>15000</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>133</v>
       </c>
       <c r="B129">
         <v>15000</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>134</v>
       </c>
       <c r="B130">
         <v>25000</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>135</v>
       </c>
       <c r="B131">
         <v>20000</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>136</v>
       </c>
       <c r="B132">
         <v>30000</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>137</v>
       </c>
       <c r="B133">
         <v>75000</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>138</v>
       </c>
       <c r="B134">
         <v>100000</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>139</v>
       </c>
       <c r="B135">
         <v>40000</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>140</v>
       </c>
       <c r="B136">
         <v>100000</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>141</v>
       </c>
       <c r="B137">
         <v>100000</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>142</v>
       </c>
       <c r="B138">
         <v>35000</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>143</v>
       </c>
       <c r="B139">
         <v>25000</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>144</v>
       </c>
       <c r="B140">
         <v>25000</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>145</v>
       </c>
       <c r="B141">
         <v>35000</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>986</v>
       </c>
       <c r="B142">
         <v>35000</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>987</v>
       </c>
       <c r="B143">
         <v>35000</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>148</v>
       </c>
       <c r="B144">
         <v>55000</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>149</v>
       </c>
       <c r="B145">
         <v>55000</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>150</v>
       </c>
       <c r="B146">
         <v>50000</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>151</v>
       </c>
       <c r="B147">
         <v>50000</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>152</v>
       </c>
       <c r="B148">
         <v>50000</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>153</v>
       </c>
       <c r="B149">
         <v>50000</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>154</v>
       </c>
       <c r="B150">
         <v>50000</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>155</v>
       </c>
       <c r="B151">
         <v>50000</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>156</v>
       </c>
       <c r="B152">
         <v>50000</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>157</v>
       </c>
       <c r="B153">
         <v>60000</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>158</v>
       </c>
       <c r="B154">
         <v>70000</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>159</v>
       </c>
       <c r="B155">
         <v>65000</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>160</v>
       </c>
       <c r="B156">
         <v>65000</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>161</v>
       </c>
       <c r="B157">
         <v>90000</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>162</v>
       </c>
       <c r="B158">
         <v>95000</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>163</v>
       </c>
       <c r="B159">
         <v>90000</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>164</v>
       </c>
       <c r="B160">
         <v>70000</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>165</v>
       </c>
       <c r="B161">
         <v>70000</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>166</v>
       </c>
       <c r="B162">
         <v>45000</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>167</v>
       </c>
       <c r="B163">
         <v>60000</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>168</v>
       </c>
       <c r="B164">
         <v>60000</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>169</v>
       </c>
       <c r="B165">
         <v>5000</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>170</v>
       </c>
       <c r="B166">
         <v>35000</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>171</v>
       </c>
       <c r="B167">
         <v>17500</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>172</v>
       </c>
       <c r="B168">
         <v>20000</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>173</v>
       </c>
       <c r="B169">
         <v>100000</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>174</v>
       </c>
       <c r="B170">
         <v>175000</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>175</v>
       </c>
       <c r="B171">
         <v>50000</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>176</v>
       </c>
       <c r="B172">
         <v>135000</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>177</v>
       </c>
       <c r="B173">
         <v>20000</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>178</v>
       </c>
       <c r="B174">
         <v>35000</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>179</v>
       </c>
       <c r="B175">
         <v>30000</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>180</v>
       </c>
       <c r="B176">
         <v>30000</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>181</v>
       </c>
       <c r="B177">
         <v>30000</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>423</v>
       </c>
       <c r="B178">
         <v>40000</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>183</v>
       </c>
       <c r="B179">
         <v>32500</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>184</v>
       </c>
       <c r="B180">
         <v>30000</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>185</v>
       </c>
       <c r="B181">
         <v>55000</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>186</v>
       </c>
       <c r="B182">
         <v>225000</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>235000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>188</v>
       </c>
       <c r="B183">
         <v>40000</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>187</v>
       </c>
       <c r="B184">
         <v>65000</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>189</v>
       </c>
       <c r="B185">
         <v>40000</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>190</v>
       </c>
       <c r="B186">
         <v>40000</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>191</v>
       </c>
       <c r="B187">
         <v>40000</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>192</v>
       </c>
       <c r="B188">
         <v>95000</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>193</v>
       </c>
       <c r="B189">
         <v>40000</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>194</v>
       </c>
       <c r="B190">
         <v>25000</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>195</v>
       </c>
       <c r="B191">
         <v>25000</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>196</v>
       </c>
       <c r="B192">
         <v>50000</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>197</v>
       </c>
       <c r="B193">
         <v>25000</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B194">
         <v>30000</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>198</v>
       </c>
       <c r="B195">
         <v>35000</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B196">
         <v>25000</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197">
         <v>15000</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>240</v>
       </c>
       <c r="B198">
         <v>15000</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>200</v>
       </c>
       <c r="B199">
         <v>105000</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>201</v>
       </c>
       <c r="B200">
         <v>125000</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>202</v>
       </c>
       <c r="B201">
         <v>125000</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>203</v>
       </c>
       <c r="B202">
         <v>15000</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>204</v>
       </c>
       <c r="B203">
         <v>35000</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>205</v>
       </c>
       <c r="B204">
         <v>85000</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>206</v>
       </c>
       <c r="B205">
         <v>10000</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>207</v>
       </c>
       <c r="B206">
         <v>25000</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>208</v>
       </c>
       <c r="B207">
         <v>195000</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>209</v>
       </c>
       <c r="B208">
         <v>215000</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>210</v>
       </c>
       <c r="B209">
         <v>245000</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>211</v>
       </c>
       <c r="B210">
         <v>295000</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>212</v>
       </c>
       <c r="B211">
         <v>75000</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C211">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>213</v>
       </c>
       <c r="B212">
         <v>95000</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>214</v>
       </c>
       <c r="B213">
         <v>110000</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>215</v>
       </c>
       <c r="B214">
         <v>95000</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>216</v>
       </c>
       <c r="B215">
         <v>85000</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>217</v>
       </c>
       <c r="B216">
         <v>45000</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C216">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>218</v>
       </c>
       <c r="B217">
         <v>75000</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C217">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>219</v>
       </c>
       <c r="B218">
         <v>25000</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C218">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>220</v>
       </c>
       <c r="B219">
         <v>25000</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C219">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>221</v>
       </c>
       <c r="B220">
         <v>22500</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>222</v>
       </c>
       <c r="B221">
         <v>22500</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C221">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>223</v>
       </c>
       <c r="B222">
         <v>25000</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C222">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>224</v>
       </c>
       <c r="B223">
         <v>45000</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C223">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>225</v>
       </c>
       <c r="B224">
         <v>45000</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>226</v>
       </c>
       <c r="B225">
         <v>55000</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>227</v>
       </c>
       <c r="B226">
         <v>40000</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C226">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>228</v>
       </c>
       <c r="B227">
         <v>50000</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>229</v>
       </c>
       <c r="B228">
         <v>55000</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>230</v>
       </c>
       <c r="B229">
         <v>55000</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>231</v>
       </c>
       <c r="B230">
         <v>55000</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C230">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>232</v>
       </c>
       <c r="B231">
         <v>55000</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>233</v>
       </c>
       <c r="B232">
         <v>55000</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>234</v>
       </c>
       <c r="B233">
         <v>40000</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>235</v>
       </c>
       <c r="B234">
         <v>25000</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C234">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>236</v>
       </c>
       <c r="B235">
         <v>115000</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>237</v>
       </c>
       <c r="B236">
         <v>135000</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C236">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>238</v>
       </c>
       <c r="B237">
         <v>50000</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C237">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>239</v>
       </c>
       <c r="B238">
         <v>20000</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C238">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>769</v>
       </c>
       <c r="B239">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="C239">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>770</v>
       </c>
       <c r="B240">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+      <c r="C240">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>771</v>
+        <v>988</v>
       </c>
       <c r="B241">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="C241">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>772</v>
       </c>
       <c r="B242">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55000</v>
+      </c>
+      <c r="C242">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>773</v>
       </c>
       <c r="B243">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="C243">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>774</v>
       </c>
       <c r="B244">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="C244">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>839</v>
       </c>
       <c r="B245">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60000</v>
+      </c>
+      <c r="C245">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>840</v>
       </c>
       <c r="B246">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60000</v>
+      </c>
+      <c r="C246">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>775</v>
       </c>
       <c r="B247">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65000</v>
+      </c>
+      <c r="C247">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>776</v>
       </c>
       <c r="B248">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65000</v>
+      </c>
+      <c r="C248">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>777</v>
       </c>
       <c r="B249">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65000</v>
+      </c>
+      <c r="C249">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>778</v>
       </c>
       <c r="B250">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+        <v>180000</v>
+      </c>
+      <c r="C250">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>779</v>
       </c>
       <c r="B251">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22500</v>
+      </c>
+      <c r="C251">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>780</v>
       </c>
       <c r="B252">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="C252">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>781</v>
       </c>
       <c r="B253">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+        <v>90000</v>
+      </c>
+      <c r="C253">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>782</v>
       </c>
       <c r="B254">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+      <c r="C254">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>783</v>
       </c>
       <c r="B255">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125000</v>
+      </c>
+      <c r="C255">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>784</v>
       </c>
       <c r="B256">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125000</v>
+      </c>
+      <c r="C256">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>785</v>
       </c>
       <c r="B257">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+      <c r="C257">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>786</v>
       </c>
       <c r="B258">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+        <v>110000</v>
+      </c>
+      <c r="C258">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>787</v>
       </c>
       <c r="B259">
+        <v>25000</v>
+      </c>
+      <c r="C259">
         <v>5000</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>788</v>
       </c>
       <c r="B260">
+        <v>25000</v>
+      </c>
+      <c r="C260">
         <v>5000</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>789</v>
       </c>
       <c r="B261">
+        <v>25000</v>
+      </c>
+      <c r="C261">
         <v>5000</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>790</v>
       </c>
       <c r="B262">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+        <v>110000</v>
+      </c>
+      <c r="C262">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>119</v>
       </c>
       <c r="B263">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="C263">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>791</v>
       </c>
       <c r="B264">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="C264">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>120</v>
       </c>
       <c r="B265">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="C265">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>792</v>
       </c>
       <c r="B266">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70000</v>
+      </c>
+      <c r="C266">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>793</v>
       </c>
       <c r="B267">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70000</v>
+      </c>
+      <c r="C267">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>794</v>
       </c>
       <c r="B268">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+      <c r="C268">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>815</v>
       </c>
       <c r="B269">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+      <c r="C269">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>816</v>
       </c>
       <c r="B270">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+      <c r="C270">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>795</v>
       </c>
       <c r="B271">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+      <c r="C271">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>796</v>
       </c>
       <c r="B272">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+      <c r="C272">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>797</v>
       </c>
       <c r="B273">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+      <c r="C273">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>798</v>
       </c>
       <c r="B274">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32500</v>
+      </c>
+      <c r="C274">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>799</v>
       </c>
       <c r="B275">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32500</v>
+      </c>
+      <c r="C275">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>800</v>
       </c>
       <c r="B276">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+      <c r="C276">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>740</v>
       </c>
       <c r="B277">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35000</v>
+      </c>
+      <c r="C277">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>801</v>
       </c>
       <c r="B278">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35000</v>
+      </c>
+      <c r="C278">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>802</v>
       </c>
       <c r="B279">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+      <c r="C279">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>803</v>
       </c>
       <c r="B280">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60000</v>
+      </c>
+      <c r="C280">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>804</v>
       </c>
       <c r="B281">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+        <v>175000</v>
+      </c>
+      <c r="C281">
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>805</v>
       </c>
       <c r="B282">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30000</v>
+      </c>
+      <c r="C282">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>806</v>
       </c>
       <c r="B283">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30000</v>
+      </c>
+      <c r="C283">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>807</v>
       </c>
       <c r="B284">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30000</v>
+      </c>
+      <c r="C284">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>808</v>
       </c>
       <c r="B285">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30000</v>
+      </c>
+      <c r="C285">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>809</v>
       </c>
       <c r="B286">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30000</v>
+      </c>
+      <c r="C286">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>810</v>
       </c>
       <c r="B287">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+      <c r="C287">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>811</v>
       </c>
       <c r="B288">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+      <c r="C288">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>812</v>
       </c>
       <c r="B289">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80000</v>
+      </c>
+      <c r="C289">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>162</v>
       </c>
       <c r="B290">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+      <c r="C290">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>161</v>
       </c>
       <c r="B291">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+        <v>90000</v>
+      </c>
+      <c r="C291">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>813</v>
       </c>
       <c r="B292">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+      <c r="C292">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>814</v>
       </c>
       <c r="B293">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+      <c r="C293">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>817</v>
       </c>
       <c r="B294">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12500</v>
+      </c>
+      <c r="C294">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>818</v>
       </c>
       <c r="B295">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12500</v>
+      </c>
+      <c r="C295">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>819</v>
       </c>
       <c r="B296">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12500</v>
+      </c>
+      <c r="C296">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>820</v>
       </c>
       <c r="B297">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12500</v>
+      </c>
+      <c r="C297">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>821</v>
       </c>
       <c r="B298">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15000</v>
+      </c>
+      <c r="C298">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>822</v>
       </c>
       <c r="B299">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15000</v>
+      </c>
+      <c r="C299">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>823</v>
       </c>
       <c r="B300">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12500</v>
+      </c>
+      <c r="C300">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>824</v>
       </c>
       <c r="B301">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+      <c r="C301">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>825</v>
       </c>
       <c r="B302">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+      <c r="C302">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>826</v>
       </c>
       <c r="B303">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="C303">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>827</v>
       </c>
       <c r="B304">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7500</v>
+      </c>
+      <c r="C304">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>828</v>
       </c>
       <c r="B305">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12500</v>
+      </c>
+      <c r="C305">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>829</v>
       </c>
       <c r="B306">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12500</v>
+      </c>
+      <c r="C306">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>830</v>
       </c>
       <c r="B307">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45000</v>
+      </c>
+      <c r="C307">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>831</v>
       </c>
       <c r="B308">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45000</v>
+      </c>
+      <c r="C308">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>832</v>
       </c>
       <c r="B309">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12500</v>
+      </c>
+      <c r="C309">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>833</v>
       </c>
       <c r="B310">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="C310">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>834</v>
       </c>
       <c r="B311">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="C311">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>835</v>
       </c>
       <c r="B312">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55000</v>
+      </c>
+      <c r="C312">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>836</v>
       </c>
       <c r="B313">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45000</v>
+      </c>
+      <c r="C313">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>837</v>
       </c>
       <c r="B314">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35000</v>
+      </c>
+      <c r="C314">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>838</v>
       </c>
       <c r="B315">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27500</v>
+      </c>
+      <c r="C315">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>841</v>
       </c>
       <c r="B316">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>842</v>
       </c>
       <c r="B317">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55000</v>
+      </c>
+      <c r="C317">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>843</v>
       </c>
       <c r="B318">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>844</v>
       </c>
       <c r="B319">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12500</v>
+      </c>
+      <c r="C319">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>845</v>
       </c>
       <c r="B320">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12500</v>
+      </c>
+      <c r="C320">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>846</v>
       </c>
       <c r="B321">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35000</v>
+      </c>
+      <c r="C321">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>847</v>
       </c>
       <c r="B322">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35000</v>
+      </c>
+      <c r="C322">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>848</v>
       </c>
       <c r="B323">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125000</v>
+      </c>
+      <c r="C323">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>849</v>
       </c>
       <c r="B324">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="C324">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>850</v>
       </c>
       <c r="B325">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="C325">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>851</v>
       </c>
       <c r="B326">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="C326">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>852</v>
       </c>
       <c r="B327">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="C327">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>853</v>
       </c>
       <c r="B328">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="C328">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>854</v>
       </c>
       <c r="B329">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25000</v>
+      </c>
+      <c r="C329">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>855</v>
       </c>
       <c r="B330">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>856</v>
       </c>
       <c r="B331">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+        <v>150000</v>
+      </c>
+      <c r="C331">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>857</v>
       </c>
       <c r="B332">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+      <c r="C332">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>858</v>
       </c>
       <c r="B333">
+        <v>50000</v>
+      </c>
+      <c r="C333">
         <v>10000</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>859</v>
       </c>
       <c r="B334">
+        <v>50000</v>
+      </c>
+      <c r="C334">
         <v>10000</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>860</v>
       </c>
       <c r="B335">
-        <v>3000</v>
+        <v>15000</v>
+      </c>
+      <c r="C335">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>877</v>
+      </c>
+      <c r="B336">
+        <v>475000</v>
+      </c>
+      <c r="C336">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>878</v>
+      </c>
+      <c r="B337">
+        <v>350000</v>
+      </c>
+      <c r="C337">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>879</v>
+      </c>
+      <c r="B338">
+        <v>2500</v>
+      </c>
+      <c r="C338">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>880</v>
+      </c>
+      <c r="B339">
+        <v>5000</v>
+      </c>
+      <c r="C339">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>881</v>
+      </c>
+      <c r="B340">
+        <v>55000</v>
+      </c>
+      <c r="C340">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>882</v>
+      </c>
+      <c r="B341">
+        <v>55000</v>
+      </c>
+      <c r="C341">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>883</v>
+      </c>
+      <c r="B342">
+        <v>15000</v>
+      </c>
+      <c r="C342">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>884</v>
+      </c>
+      <c r="B343">
+        <v>25000</v>
+      </c>
+      <c r="C343">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>885</v>
+      </c>
+      <c r="B344">
+        <v>130000</v>
+      </c>
+      <c r="C344">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>886</v>
+      </c>
+      <c r="B345">
+        <v>2500</v>
+      </c>
+      <c r="C345">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>887</v>
+      </c>
+      <c r="B346">
+        <v>5000</v>
+      </c>
+      <c r="C346">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>888</v>
+      </c>
+      <c r="B347">
+        <v>95000</v>
+      </c>
+      <c r="C347">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>889</v>
+      </c>
+      <c r="B348">
+        <v>55000</v>
+      </c>
+      <c r="C348">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>890</v>
+      </c>
+      <c r="B349">
+        <v>55000</v>
+      </c>
+      <c r="C349">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>891</v>
+      </c>
+      <c r="B350">
+        <v>55000</v>
+      </c>
+      <c r="C350">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>892</v>
+      </c>
+      <c r="B351">
+        <v>5000</v>
+      </c>
+      <c r="C351">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>893</v>
+      </c>
+      <c r="B352">
+        <v>6250</v>
+      </c>
+      <c r="C352">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>894</v>
+      </c>
+      <c r="B353">
+        <v>20000</v>
+      </c>
+      <c r="C353">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>895</v>
+      </c>
+      <c r="B354">
+        <v>7500</v>
+      </c>
+      <c r="C354">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>896</v>
+      </c>
+      <c r="B355">
+        <v>30000</v>
+      </c>
+      <c r="C355">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>897</v>
+      </c>
+      <c r="B356">
+        <v>40000</v>
+      </c>
+      <c r="C356">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>898</v>
+      </c>
+      <c r="B357">
+        <v>45000</v>
+      </c>
+      <c r="C357">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>899</v>
+      </c>
+      <c r="B358">
+        <v>80000</v>
+      </c>
+      <c r="C358">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>900</v>
+      </c>
+      <c r="B359">
+        <v>10000</v>
+      </c>
+      <c r="C359">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>901</v>
+      </c>
+      <c r="B360">
+        <v>10000</v>
+      </c>
+      <c r="C360">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>902</v>
+      </c>
+      <c r="B361">
+        <v>25000</v>
+      </c>
+      <c r="C361">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>903</v>
+      </c>
+      <c r="B362">
+        <v>115000</v>
+      </c>
+      <c r="C362">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>904</v>
+      </c>
+      <c r="B363">
+        <v>130000</v>
+      </c>
+      <c r="C363">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>905</v>
+      </c>
+      <c r="B364">
+        <v>40000</v>
+      </c>
+      <c r="C364">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>906</v>
+      </c>
+      <c r="B365">
+        <v>40000</v>
+      </c>
+      <c r="C365">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>907</v>
+      </c>
+      <c r="B366">
+        <v>35000</v>
+      </c>
+      <c r="C366">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>908</v>
+      </c>
+      <c r="B367">
+        <v>40000</v>
+      </c>
+      <c r="C367">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>909</v>
+      </c>
+      <c r="B368">
+        <v>35000</v>
+      </c>
+      <c r="C368">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>910</v>
+      </c>
+      <c r="B369">
+        <v>25000</v>
+      </c>
+      <c r="C369">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>911</v>
+      </c>
+      <c r="B370">
+        <v>25000</v>
+      </c>
+      <c r="C370">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>912</v>
+      </c>
+      <c r="B371">
+        <v>25000</v>
+      </c>
+      <c r="C371">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>913</v>
+      </c>
+      <c r="B372">
+        <v>25000</v>
+      </c>
+      <c r="C372">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>914</v>
+      </c>
+      <c r="B373">
+        <v>25000</v>
+      </c>
+      <c r="C373">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>915</v>
+      </c>
+      <c r="B374">
+        <v>25000</v>
+      </c>
+      <c r="C374">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>916</v>
+      </c>
+      <c r="B375">
+        <v>15000</v>
+      </c>
+      <c r="C375">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>917</v>
+      </c>
+      <c r="B376">
+        <v>25000</v>
+      </c>
+      <c r="C376">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>918</v>
+      </c>
+      <c r="B377">
+        <v>20000</v>
+      </c>
+      <c r="C377">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>919</v>
+      </c>
+      <c r="B378">
+        <v>25000</v>
+      </c>
+      <c r="C378">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>920</v>
+      </c>
+      <c r="B379">
+        <v>20000</v>
+      </c>
+      <c r="C379">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>921</v>
+      </c>
+      <c r="B380">
+        <v>20000</v>
+      </c>
+      <c r="C380">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>922</v>
+      </c>
+      <c r="B381">
+        <v>25000</v>
+      </c>
+      <c r="C381">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>923</v>
+      </c>
+      <c r="B382">
+        <v>20000</v>
+      </c>
+      <c r="C382">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>924</v>
+      </c>
+      <c r="B383">
+        <v>210000</v>
+      </c>
+      <c r="C383">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>925</v>
+      </c>
+      <c r="B384">
+        <v>60000</v>
+      </c>
+      <c r="C384">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>739</v>
+      </c>
+      <c r="B385">
+        <v>35000</v>
+      </c>
+      <c r="C385">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>926</v>
+      </c>
+      <c r="B386">
+        <v>35000</v>
+      </c>
+      <c r="C386">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>927</v>
+      </c>
+      <c r="B387">
+        <v>35000</v>
+      </c>
+      <c r="C387">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>928</v>
+      </c>
+      <c r="B388">
+        <v>35000</v>
+      </c>
+      <c r="C388">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>929</v>
+      </c>
+      <c r="B389">
+        <v>105000</v>
+      </c>
+      <c r="C389">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>930</v>
+      </c>
+      <c r="B390">
+        <v>40000</v>
+      </c>
+      <c r="C390">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>931</v>
+      </c>
+      <c r="B391">
+        <v>55000</v>
+      </c>
+      <c r="C391">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>932</v>
+      </c>
+      <c r="B392">
+        <v>50000</v>
+      </c>
+      <c r="C392">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>933</v>
+      </c>
+      <c r="B393">
+        <v>40000</v>
+      </c>
+      <c r="C393">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>934</v>
+      </c>
+      <c r="B394">
+        <v>35000</v>
+      </c>
+      <c r="C394">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>935</v>
+      </c>
+      <c r="B395">
+        <v>35000</v>
+      </c>
+      <c r="C395">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>936</v>
+      </c>
+      <c r="B396">
+        <v>35000</v>
+      </c>
+      <c r="C396">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>937</v>
+      </c>
+      <c r="B397">
+        <v>35000</v>
+      </c>
+      <c r="C397">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>938</v>
+      </c>
+      <c r="B398">
+        <v>35000</v>
+      </c>
+      <c r="C398">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>939</v>
+      </c>
+      <c r="B399">
+        <v>35000</v>
+      </c>
+      <c r="C399">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>940</v>
+      </c>
+      <c r="B400">
+        <v>45000</v>
+      </c>
+      <c r="C400">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>941</v>
+      </c>
+      <c r="B401">
+        <v>55000</v>
+      </c>
+      <c r="C401">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>942</v>
+      </c>
+      <c r="B402">
+        <v>105000</v>
+      </c>
+      <c r="C402">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>943</v>
+      </c>
+      <c r="B403">
+        <v>5000</v>
+      </c>
+      <c r="C403">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>944</v>
+      </c>
+      <c r="B404">
+        <v>10000</v>
+      </c>
+      <c r="C404">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>945</v>
+      </c>
+      <c r="B405">
+        <v>70000</v>
+      </c>
+      <c r="C405">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>946</v>
+      </c>
+      <c r="B406">
+        <v>40000</v>
+      </c>
+      <c r="C406">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>947</v>
+      </c>
+      <c r="B407">
+        <v>12500</v>
+      </c>
+      <c r="C407">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>948</v>
+      </c>
+      <c r="B408">
+        <v>12500</v>
+      </c>
+      <c r="C408">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>977</v>
+      </c>
+      <c r="B409">
+        <v>12500</v>
+      </c>
+      <c r="C409">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>949</v>
+      </c>
+      <c r="B410">
+        <v>7500</v>
+      </c>
+      <c r="C410">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>950</v>
+      </c>
+      <c r="B411">
+        <v>100000</v>
+      </c>
+      <c r="C411">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>951</v>
+      </c>
+      <c r="B412">
+        <v>65000</v>
+      </c>
+      <c r="C412">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>952</v>
+      </c>
+      <c r="B413">
+        <v>100000</v>
+      </c>
+      <c r="C413">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>953</v>
+      </c>
+      <c r="B414">
+        <v>40000</v>
+      </c>
+      <c r="C414">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>954</v>
+      </c>
+      <c r="B415">
+        <v>95000</v>
+      </c>
+      <c r="C415">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>955</v>
+      </c>
+      <c r="B416">
+        <v>10000</v>
+      </c>
+      <c r="C416">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>956</v>
+      </c>
+      <c r="B417">
+        <v>2500</v>
+      </c>
+      <c r="C417">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>957</v>
+      </c>
+      <c r="B418">
+        <v>2500</v>
+      </c>
+      <c r="C418">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>958</v>
+      </c>
+      <c r="B419">
+        <v>35000</v>
+      </c>
+      <c r="C419">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>959</v>
+      </c>
+      <c r="B420">
+        <v>35000</v>
+      </c>
+      <c r="C420">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>960</v>
+      </c>
+      <c r="B421">
+        <v>35000</v>
+      </c>
+      <c r="C421">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>961</v>
+      </c>
+      <c r="B422">
+        <v>35000</v>
+      </c>
+      <c r="C422">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>962</v>
+      </c>
+      <c r="B423">
+        <v>35000</v>
+      </c>
+      <c r="C423">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>963</v>
+      </c>
+      <c r="B424">
+        <v>35000</v>
+      </c>
+      <c r="C424">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>964</v>
+      </c>
+      <c r="B425">
+        <v>105000</v>
+      </c>
+      <c r="C425">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>965</v>
+      </c>
+      <c r="B426">
+        <v>105000</v>
+      </c>
+      <c r="C426">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>966</v>
+      </c>
+      <c r="B427">
+        <v>105000</v>
+      </c>
+      <c r="C427">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>967</v>
+      </c>
+      <c r="B428">
+        <v>105000</v>
+      </c>
+      <c r="C428">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>968</v>
+      </c>
+      <c r="B429">
+        <v>105000</v>
+      </c>
+      <c r="C429">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>969</v>
+      </c>
+      <c r="B430">
+        <v>105000</v>
+      </c>
+      <c r="C430">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>970</v>
+      </c>
+      <c r="B431">
+        <v>105000</v>
+      </c>
+      <c r="C431">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>971</v>
+      </c>
+      <c r="B432">
+        <v>35000</v>
+      </c>
+      <c r="C432">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>972</v>
+      </c>
+      <c r="B433">
+        <v>35000</v>
+      </c>
+      <c r="C433">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>973</v>
+      </c>
+      <c r="B434">
+        <v>35000</v>
+      </c>
+      <c r="C434">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>974</v>
+      </c>
+      <c r="B435">
+        <v>35000</v>
+      </c>
+      <c r="C435">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -6602,145 +9066,285 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168EC260-6677-4C08-A86C-9E825B68E03F}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4696ED-454E-4527-800A-76772CCF73EF}">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="P12" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="60.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>604</v>
+        <v>255</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>244</v>
+        <v>488</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>295</v>
+        <v>488</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>323</v>
+        <v>488</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>285</v>
+        <v>488</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>392</v>
+        <v>488</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>402</v>
+        <v>488</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>412</v>
+        <v>592</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -6939,12 +9543,155 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168EC260-6677-4C08-A86C-9E825B68E03F}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D191482-3C89-43C6-9B4E-FA1ABAC50DC4}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7289,7 +10036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4558EE2C-F5EC-4A1A-A2FD-C1765CBF8CCE}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -7462,7 +10209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C7150D-7641-4DE0-BC63-9E2F0617B8E1}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -7489,7 +10236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2798618B-826C-4B98-AA76-858961C5686A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -7605,7 +10352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5801C33D-36A8-4835-A263-4441BE7875F2}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -7666,7 +10413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ED8E59-16F1-4C48-8759-B0185A2CF42B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -7757,12 +10504,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65216F00-7E0A-466F-A6A0-5AAF088A2805}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7824,7 +10571,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>868</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7832,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7840,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>870</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7848,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7856,27 +10603,71 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>877</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FE72B7-5A0C-402E-B035-6C3CF7C2E4DA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>873</v>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -7891,8 +10682,8 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8041,7 +10832,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>32500</v>
@@ -8056,7 +10847,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>20000</v>
@@ -8367,6 +11158,26 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FE72B7-5A0C-402E-B035-6C3CF7C2E4DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8378,7 +11189,7 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9629,8 +12440,8 @@
   </sheetPr>
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10639,10 +13450,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10956,7 +13767,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C21">
         <v>30000</v>
@@ -10986,7 +13797,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C23">
         <v>25000</v>
@@ -11627,12 +14438,40 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>5</v>
+      </c>
       <c r="B66" t="s">
+        <v>877</v>
+      </c>
+      <c r="C66">
+        <v>475000</v>
+      </c>
+      <c r="D66">
+        <v>2375000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>878</v>
+      </c>
+      <c r="C67">
+        <v>350000</v>
+      </c>
+      <c r="D67">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>32</v>
       </c>
-      <c r="D66">
-        <f>SUM(D2:D65)</f>
-        <v>10215000</v>
+      <c r="D68">
+        <f>SUM(D2:D67)</f>
+        <v>13990000</v>
       </c>
     </row>
   </sheetData>
@@ -11648,17 +14487,17 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -13130,17 +15969,1551 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99">
+        <f>SUM(D2:D98)</f>
+        <v>3220500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684A6896-D6A6-414C-9D12-AEBEF135E5CE}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2">
+        <v>2500</v>
+      </c>
+      <c r="D2">
+        <f>A2*C2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>880</v>
+      </c>
+      <c r="C3">
+        <v>5000</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">A3*C3</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C4">
+        <v>55000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C5">
+        <v>55000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>883</v>
+      </c>
+      <c r="C6">
+        <v>15000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>884</v>
+      </c>
+      <c r="C7">
+        <v>25000</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>885</v>
+      </c>
+      <c r="C8">
+        <v>130000</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>886</v>
+      </c>
+      <c r="C9">
+        <v>2500</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>887</v>
+      </c>
+      <c r="C10">
+        <v>5000</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>888</v>
+      </c>
+      <c r="C11">
+        <v>95000</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>889</v>
+      </c>
+      <c r="C12">
+        <v>55000</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>890</v>
+      </c>
+      <c r="C13">
+        <v>55000</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>891</v>
+      </c>
+      <c r="C14">
+        <v>55000</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>892</v>
+      </c>
+      <c r="C15">
+        <v>5000</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>893</v>
+      </c>
+      <c r="C16">
+        <v>6250</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>894</v>
+      </c>
+      <c r="C17">
+        <v>20000</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>895</v>
+      </c>
+      <c r="C18">
+        <v>7500</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>896</v>
+      </c>
+      <c r="C19">
+        <v>30000</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>897</v>
+      </c>
+      <c r="C20">
+        <v>40000</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>898</v>
+      </c>
+      <c r="C21">
+        <v>45000</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>899</v>
+      </c>
+      <c r="C22">
+        <v>80000</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>900</v>
+      </c>
+      <c r="C23">
+        <v>10000</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>901</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>902</v>
+      </c>
+      <c r="C25">
+        <v>25000</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>903</v>
+      </c>
+      <c r="C26">
+        <v>115000</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>904</v>
+      </c>
+      <c r="C27">
+        <v>130000</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>905</v>
+      </c>
+      <c r="C28">
+        <v>40000</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>906</v>
+      </c>
+      <c r="C29">
+        <v>40000</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>907</v>
+      </c>
+      <c r="C30">
+        <v>35000</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>908</v>
+      </c>
+      <c r="C31">
+        <v>40000</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>909</v>
+      </c>
+      <c r="C32">
+        <v>35000</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>910</v>
+      </c>
+      <c r="C33">
+        <v>25000</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>911</v>
+      </c>
+      <c r="C34">
+        <v>25000</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>912</v>
+      </c>
+      <c r="C35">
+        <v>25000</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>913</v>
+      </c>
+      <c r="C36">
+        <v>25000</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>914</v>
+      </c>
+      <c r="C37">
+        <v>25000</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>915</v>
+      </c>
+      <c r="C38">
+        <v>25000</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>916</v>
+      </c>
+      <c r="C39">
+        <v>15000</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>917</v>
+      </c>
+      <c r="C40">
+        <v>25000</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>918</v>
+      </c>
+      <c r="C41">
+        <v>20000</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>919</v>
+      </c>
+      <c r="C42">
+        <v>25000</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>920</v>
+      </c>
+      <c r="C43">
+        <v>20000</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>921</v>
+      </c>
+      <c r="C44">
+        <v>20000</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>922</v>
+      </c>
+      <c r="C45">
+        <v>25000</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>923</v>
+      </c>
+      <c r="C46">
+        <v>20000</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>924</v>
+      </c>
+      <c r="C47">
+        <v>210000</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>925</v>
+      </c>
+      <c r="C48">
+        <v>60000</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>739</v>
+      </c>
+      <c r="C49">
+        <v>35000</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>926</v>
+      </c>
+      <c r="C50">
+        <v>35000</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>927</v>
+      </c>
+      <c r="C51">
+        <v>35000</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>928</v>
+      </c>
+      <c r="C52">
+        <v>35000</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>929</v>
+      </c>
+      <c r="C53">
+        <v>105000</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>930</v>
+      </c>
+      <c r="C54">
+        <v>40000</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>931</v>
+      </c>
+      <c r="C55">
+        <v>55000</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>932</v>
+      </c>
+      <c r="C56">
+        <v>50000</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>933</v>
+      </c>
+      <c r="C57">
+        <v>40000</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>934</v>
+      </c>
+      <c r="C58">
+        <v>35000</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>935</v>
+      </c>
+      <c r="C59">
+        <v>35000</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>936</v>
+      </c>
+      <c r="C60">
+        <v>35000</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>937</v>
+      </c>
+      <c r="C61">
+        <v>35000</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>938</v>
+      </c>
+      <c r="C62">
+        <v>35000</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>939</v>
+      </c>
+      <c r="C63">
+        <v>35000</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>940</v>
+      </c>
+      <c r="C64">
+        <v>45000</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>941</v>
+      </c>
+      <c r="C65">
+        <v>55000</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>942</v>
+      </c>
+      <c r="C66">
+        <v>105000</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>943</v>
+      </c>
+      <c r="C67">
+        <v>5000</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D99" si="1">A67*C67</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>944</v>
+      </c>
+      <c r="C68">
+        <v>10000</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>945</v>
+      </c>
+      <c r="C69">
+        <v>70000</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>946</v>
+      </c>
+      <c r="C70">
+        <v>40000</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>947</v>
+      </c>
+      <c r="C71">
+        <v>12500</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>948</v>
+      </c>
+      <c r="C72">
+        <v>12500</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>977</v>
+      </c>
+      <c r="C73">
+        <v>12500</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>949</v>
+      </c>
+      <c r="C74">
+        <v>7500</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>950</v>
+      </c>
+      <c r="C75">
+        <v>100000</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>951</v>
+      </c>
+      <c r="C76">
+        <v>65000</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>952</v>
+      </c>
+      <c r="C77">
+        <v>100000</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>953</v>
+      </c>
+      <c r="C78">
+        <v>40000</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>954</v>
+      </c>
+      <c r="C79">
+        <v>95000</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>955</v>
+      </c>
+      <c r="C80">
+        <v>10000</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>956</v>
+      </c>
+      <c r="C81">
+        <v>2500</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>957</v>
+      </c>
+      <c r="C82">
+        <v>2500</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>958</v>
+      </c>
+      <c r="C83">
+        <v>35000</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>959</v>
+      </c>
+      <c r="C84">
+        <v>35000</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>960</v>
+      </c>
+      <c r="C85">
+        <v>35000</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>961</v>
+      </c>
+      <c r="C86">
+        <v>35000</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>962</v>
+      </c>
+      <c r="C87">
+        <v>35000</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>963</v>
+      </c>
+      <c r="C88">
+        <v>35000</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>964</v>
+      </c>
+      <c r="C89">
+        <v>105000</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>965</v>
+      </c>
+      <c r="C90">
+        <v>105000</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>966</v>
+      </c>
+      <c r="C91">
+        <v>105000</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>967</v>
+      </c>
+      <c r="C92">
+        <v>105000</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>968</v>
+      </c>
+      <c r="C93">
+        <v>105000</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>969</v>
+      </c>
+      <c r="C94">
+        <v>105000</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>970</v>
+      </c>
+      <c r="C95">
+        <v>105000</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>971</v>
+      </c>
+      <c r="C96">
+        <v>35000</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>972</v>
+      </c>
+      <c r="C97">
+        <v>35000</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>973</v>
+      </c>
+      <c r="C98">
+        <v>35000</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>974</v>
+      </c>
+      <c r="C99">
+        <v>35000</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>876</v>
+      </c>
+      <c r="D100">
+        <f>SUM(D2:D99)</f>
+        <v>10567500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CA675F-48AD-4216-B908-C37AC2B98B46}">
   <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16162,7 +20535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF67B919-220D-4FF8-B793-80E23198BAE4}">
   <dimension ref="A1:K240"/>
   <sheetViews>
@@ -18562,291 +22935,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4696ED-454E-4527-800A-76772CCF73EF}">
-  <dimension ref="A1:B36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="60.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>757</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>